--- a/results/mp/tinybert/toy-spam/confidence/168/stop-words-topk-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/168/stop-words-topk-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="80">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,157 +49,154 @@
     <t>disappointed</t>
   </si>
   <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
     <t>waste</t>
   </si>
   <si>
+    <t>instead</t>
+  </si>
+  <si>
     <t>junk</t>
   </si>
   <si>
     <t>broken</t>
   </si>
   <si>
-    <t>instead</t>
-  </si>
-  <si>
     <t>smaller</t>
   </si>
   <si>
     <t>small</t>
   </si>
   <si>
-    <t>guess</t>
-  </si>
-  <si>
     <t>apart</t>
   </si>
   <si>
     <t>plastic</t>
   </si>
   <si>
+    <t>paint</t>
+  </si>
+  <si>
     <t>ok</t>
   </si>
   <si>
+    <t>cheap</t>
+  </si>
+  <si>
     <t>thought</t>
   </si>
   <si>
-    <t>cheap</t>
-  </si>
-  <si>
     <t>difficult</t>
   </si>
   <si>
+    <t>though</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>picture</t>
+  </si>
+  <si>
     <t>bit</t>
   </si>
   <si>
-    <t>nothing</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>though</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
     <t>item</t>
   </si>
   <si>
-    <t>work</t>
+    <t>would</t>
   </si>
   <si>
     <t>used</t>
   </si>
   <si>
-    <t>would</t>
+    <t>look</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>pieces</t>
+  </si>
+  <si>
+    <t>could</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>buy</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>pieces</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>box</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>expected</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
-    <t>buy</t>
-  </si>
-  <si>
     <t>even</t>
   </si>
   <si>
     <t>made</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
     <t>much</t>
   </si>
   <si>
+    <t>one</t>
+  </si>
+  <si>
     <t>get</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
     <t>toy</t>
   </si>
   <si>
-    <t>bought</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>awesome</t>
+    <t>excellent</t>
   </si>
   <si>
     <t>favorite</t>
@@ -208,39 +205,42 @@
     <t>classic</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
     <t>thank</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>loves</t>
   </si>
   <si>
-    <t>love</t>
+    <t>best</t>
   </si>
   <si>
     <t>perfect</t>
   </si>
   <si>
+    <t>loved</t>
+  </si>
+  <si>
     <t>friends</t>
   </si>
   <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>best</t>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>christmas</t>
   </si>
   <si>
     <t>enjoy</t>
   </si>
   <si>
-    <t>christmas</t>
-  </si>
-  <si>
     <t>fun</t>
   </si>
   <si>
@@ -248,9 +248,6 @@
   </si>
   <si>
     <t>game</t>
-  </si>
-  <si>
-    <t>easy</t>
   </si>
   <si>
     <t>play</t>
@@ -614,7 +611,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q53"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -622,10 +619,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -683,13 +680,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9565217391304348</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D3">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -701,19 +698,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K3">
-        <v>0.8571428571428571</v>
+        <v>0.8153846153846154</v>
       </c>
       <c r="L3">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="M3">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -725,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -754,16 +751,16 @@
         <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K4">
-        <v>0.8307692307692308</v>
+        <v>0.8035714285714286</v>
       </c>
       <c r="L4">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="M4">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -783,13 +780,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8064516129032258</v>
+        <v>0.8118279569892473</v>
       </c>
       <c r="C5">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D5">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -801,19 +798,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K5">
-        <v>0.7741935483870968</v>
+        <v>0.6875</v>
       </c>
       <c r="L5">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="M5">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -825,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -833,13 +830,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7887323943661971</v>
+        <v>0.8106796116504854</v>
       </c>
       <c r="C6">
-        <v>56</v>
+        <v>167</v>
       </c>
       <c r="D6">
-        <v>56</v>
+        <v>167</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -851,19 +848,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K6">
-        <v>0.660377358490566</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L6">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="M6">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -875,7 +872,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -883,13 +880,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.765625</v>
+        <v>0.75</v>
       </c>
       <c r="C7">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D7">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -901,19 +898,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K7">
-        <v>0.609375</v>
+        <v>0.6226415094339622</v>
       </c>
       <c r="L7">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="M7">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -925,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -933,13 +930,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7524271844660194</v>
+        <v>0.7464788732394366</v>
       </c>
       <c r="C8">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="D8">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -951,19 +948,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K8">
-        <v>0.4782608695652174</v>
+        <v>0.463768115942029</v>
       </c>
       <c r="L8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -975,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -983,13 +980,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7432432432432432</v>
+        <v>0.722972972972973</v>
       </c>
       <c r="C9">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D9">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1001,19 +998,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K9">
-        <v>0.4557377049180328</v>
+        <v>0.4446267432321575</v>
       </c>
       <c r="L9">
-        <v>556</v>
+        <v>542</v>
       </c>
       <c r="M9">
-        <v>556</v>
+        <v>543</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1022,10 +1019,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9">
-        <v>664</v>
+        <v>677</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1033,13 +1030,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7090909090909091</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="C10">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D10">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1051,19 +1048,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K10">
-        <v>0.4211618257261411</v>
+        <v>0.4137931034482759</v>
       </c>
       <c r="L10">
-        <v>203</v>
+        <v>288</v>
       </c>
       <c r="M10">
-        <v>203</v>
+        <v>289</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1072,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10">
-        <v>279</v>
+        <v>408</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1083,13 +1080,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6265060240963856</v>
+        <v>0.6909090909090909</v>
       </c>
       <c r="C11">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D11">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1101,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K11">
-        <v>0.4051724137931034</v>
+        <v>0.3630705394190871</v>
       </c>
       <c r="L11">
-        <v>282</v>
+        <v>175</v>
       </c>
       <c r="M11">
-        <v>283</v>
+        <v>175</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1122,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>414</v>
+        <v>307</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1133,37 +1130,37 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.625</v>
+        <v>0.6385542168674698</v>
       </c>
       <c r="C12">
+        <v>53</v>
+      </c>
+      <c r="D12">
+        <v>53</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>30</v>
       </c>
-      <c r="D12">
-        <v>30</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>18</v>
-      </c>
       <c r="J12" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K12">
-        <v>0.3493975903614458</v>
+        <v>0.3166666666666667</v>
       </c>
       <c r="L12">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="M12">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1175,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>108</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1183,13 +1180,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6134453781512605</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C13">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D13">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1201,19 +1198,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K13">
-        <v>0.2962962962962963</v>
+        <v>0.2891566265060241</v>
       </c>
       <c r="L13">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="M13">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1225,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>133</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1233,13 +1230,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5739130434782609</v>
+        <v>0.5681159420289855</v>
       </c>
       <c r="C14">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D14">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1251,19 +1248,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K14">
-        <v>0.290519877675841</v>
+        <v>0.2874617737003058</v>
       </c>
       <c r="L14">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M14">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1275,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1283,13 +1280,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5370370370370371</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="C15">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="D15">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1301,19 +1298,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K15">
-        <v>0.275</v>
+        <v>0.2698412698412698</v>
       </c>
       <c r="L15">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="M15">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1325,7 +1322,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>87</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1333,13 +1330,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5263157894736842</v>
+        <v>0.5196850393700787</v>
       </c>
       <c r="C16">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="D16">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1351,31 +1348,31 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K16">
-        <v>0.1837837837837838</v>
+        <v>0.2265625</v>
       </c>
       <c r="L16">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M16">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="N16">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>151</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1383,13 +1380,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4645669291338583</v>
+        <v>0.492063492063492</v>
       </c>
       <c r="C17">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="D17">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1401,19 +1398,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>68</v>
+        <v>32</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K17">
-        <v>0.1686746987951807</v>
+        <v>0.2167832167832168</v>
       </c>
       <c r="L17">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="M17">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1425,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>207</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1433,13 +1430,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4375</v>
+        <v>0.4453125</v>
       </c>
       <c r="C18">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1451,31 +1448,31 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K18">
-        <v>0.1676909569798068</v>
+        <v>0.1967871485943775</v>
       </c>
       <c r="L18">
-        <v>191</v>
+        <v>49</v>
       </c>
       <c r="M18">
-        <v>193</v>
+        <v>49</v>
       </c>
       <c r="N18">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>948</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1483,13 +1480,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4108910891089109</v>
+        <v>0.4312796208530806</v>
       </c>
       <c r="C19">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="D19">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1501,19 +1498,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K19">
-        <v>0.1225626740947075</v>
+        <v>0.1827956989247312</v>
       </c>
       <c r="L19">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="M19">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1525,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>315</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1533,7 +1530,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4028436018957346</v>
+        <v>0.4207920792079208</v>
       </c>
       <c r="C20">
         <v>85</v>
@@ -1551,31 +1548,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K20">
-        <v>0.09687906371911574</v>
+        <v>0.1720807726075505</v>
       </c>
       <c r="L20">
-        <v>149</v>
+        <v>196</v>
       </c>
       <c r="M20">
-        <v>152</v>
+        <v>198</v>
       </c>
       <c r="N20">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="O20">
-        <v>0.02000000000000002</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P20" t="b">
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>1389</v>
+        <v>943</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1604,28 +1601,28 @@
         <v>59</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K21">
-        <v>0.08042895442359249</v>
+        <v>0.1201117318435754</v>
       </c>
       <c r="L21">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="M21">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="N21">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="O21">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P21" t="b">
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>343</v>
+        <v>315</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1633,13 +1630,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3265306122448979</v>
+        <v>0.3247863247863248</v>
       </c>
       <c r="C22">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D22">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1651,31 +1648,31 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K22">
-        <v>0.05510752688172043</v>
+        <v>0.08913467794404685</v>
       </c>
       <c r="L22">
-        <v>41</v>
+        <v>137</v>
       </c>
       <c r="M22">
-        <v>49</v>
+        <v>141</v>
       </c>
       <c r="N22">
-        <v>0.84</v>
+        <v>0.97</v>
       </c>
       <c r="O22">
-        <v>0.16</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P22" t="b">
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>703</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1683,13 +1680,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3186813186813187</v>
+        <v>0.3247422680412371</v>
       </c>
       <c r="C23">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="D23">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1701,7 +1698,31 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>62</v>
+        <v>131</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K23">
+        <v>0.04557640750670242</v>
+      </c>
+      <c r="L23">
+        <v>34</v>
+      </c>
+      <c r="M23">
+        <v>40</v>
+      </c>
+      <c r="N23">
+        <v>0.85</v>
+      </c>
+      <c r="O23">
+        <v>0.15</v>
+      </c>
+      <c r="P23" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>712</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1709,13 +1730,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3092783505154639</v>
+        <v>0.3132911392405063</v>
       </c>
       <c r="C24">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="D24">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1727,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>134</v>
+        <v>217</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1735,13 +1756,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.2905982905982906</v>
+        <v>0.3037974683544304</v>
       </c>
       <c r="C25">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="D25">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1753,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>83</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1761,13 +1782,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.2879746835443038</v>
+        <v>0.3</v>
       </c>
       <c r="C26">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="D26">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1779,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>225</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1787,13 +1808,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.2753623188405797</v>
+        <v>0.2989690721649484</v>
       </c>
       <c r="C27">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="D27">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1805,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>200</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1813,13 +1834,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2626582278481013</v>
+        <v>0.2959183673469388</v>
       </c>
       <c r="C28">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="D28">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1831,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>233</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1839,13 +1860,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2514285714285714</v>
+        <v>0.2934782608695652</v>
       </c>
       <c r="C29">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="D29">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1857,7 +1878,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>131</v>
+        <v>195</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1865,13 +1886,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2507418397626113</v>
+        <v>0.2804154302670623</v>
       </c>
       <c r="C30">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="D30">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1883,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>505</v>
+        <v>485</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1891,13 +1912,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2476635514018692</v>
+        <v>0.2514285714285714</v>
       </c>
       <c r="C31">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D31">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1909,7 +1930,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>161</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1917,25 +1938,25 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.2440944881889764</v>
+        <v>0.2265625</v>
       </c>
       <c r="C32">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D32">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E32">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1943,13 +1964,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2285714285714286</v>
+        <v>0.2114537444933921</v>
       </c>
       <c r="C33">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="D33">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1961,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>108</v>
+        <v>358</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1969,25 +1990,25 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.2163355408388521</v>
+        <v>0.2021857923497268</v>
       </c>
       <c r="C34">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="D34">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="E34">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>355</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1995,13 +2016,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.2155172413793103</v>
+        <v>0.1974522292993631</v>
       </c>
       <c r="C35">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="D35">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2013,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>273</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2021,25 +2042,25 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.2131147540983606</v>
+        <v>0.1959654178674352</v>
       </c>
       <c r="C36">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="D36">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36">
-        <v>144</v>
+        <v>279</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2047,25 +2068,25 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.2</v>
+        <v>0.1811320754716981</v>
       </c>
       <c r="C37">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D37">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37">
-        <v>160</v>
+        <v>217</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2073,25 +2094,25 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.1978021978021978</v>
+        <v>0.162303664921466</v>
       </c>
       <c r="C38">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="D38">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="E38">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>292</v>
+        <v>160</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2099,7 +2120,7 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1974522292993631</v>
+        <v>0.1614583333333333</v>
       </c>
       <c r="C39">
         <v>31</v>
@@ -2117,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>126</v>
+        <v>161</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2125,25 +2146,25 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.1884816753926702</v>
+        <v>0.15625</v>
       </c>
       <c r="C40">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="D40">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40">
-        <v>155</v>
+        <v>378</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2151,13 +2172,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.1722846441947566</v>
+        <v>0.1479452054794521</v>
       </c>
       <c r="C41">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D41">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2169,7 +2190,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>221</v>
+        <v>311</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2177,25 +2198,25 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1614583333333333</v>
+        <v>0.1468926553672316</v>
       </c>
       <c r="C42">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="D42">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42">
-        <v>161</v>
+        <v>302</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2203,25 +2224,25 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.1497975708502024</v>
+        <v>0.1401869158878505</v>
       </c>
       <c r="C43">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D43">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E43">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>210</v>
+        <v>184</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2229,25 +2250,25 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.1464788732394366</v>
+        <v>0.1341463414634146</v>
       </c>
       <c r="C44">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D44">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>303</v>
+        <v>213</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2255,13 +2276,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.1254480286738351</v>
+        <v>0.1146953405017921</v>
       </c>
       <c r="C45">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D45">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E45">
         <v>0.03</v>
@@ -2273,7 +2294,7 @@
         <v>1</v>
       </c>
       <c r="H45">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2281,25 +2302,25 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.1178343949044586</v>
+        <v>0.1142857142857143</v>
       </c>
       <c r="C46">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D46">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E46">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="F46">
-        <v>0.9299999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
       </c>
       <c r="H46">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2307,13 +2328,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.1053811659192825</v>
+        <v>0.1125827814569536</v>
       </c>
       <c r="C47">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="D47">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="E47">
         <v>0.06</v>
@@ -2325,7 +2346,7 @@
         <v>1</v>
       </c>
       <c r="H47">
-        <v>399</v>
+        <v>536</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2333,25 +2354,25 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.09405940594059406</v>
+        <v>0.1046511627906977</v>
       </c>
       <c r="C48">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D48">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E48">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="F48">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
       </c>
       <c r="H48">
-        <v>549</v>
+        <v>385</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2359,25 +2380,25 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.09345794392523364</v>
+        <v>0.09056122448979592</v>
       </c>
       <c r="C49">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="D49">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="E49">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="F49">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="G49" t="b">
         <v>1</v>
       </c>
       <c r="H49">
-        <v>388</v>
+        <v>713</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2385,25 +2406,25 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.09219858156028368</v>
+        <v>0.08235294117647059</v>
       </c>
       <c r="C50">
+        <v>35</v>
+      </c>
+      <c r="D50">
         <v>39</v>
       </c>
-      <c r="D50">
-        <v>45</v>
-      </c>
       <c r="E50">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="F50">
-        <v>0.87</v>
+        <v>0.9</v>
       </c>
       <c r="G50" t="b">
         <v>1</v>
       </c>
       <c r="H50">
-        <v>384</v>
+        <v>390</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2411,77 +2432,25 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.08035714285714286</v>
+        <v>0.08191653786707882</v>
       </c>
       <c r="C51">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D51">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E51">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="F51">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="G51" t="b">
         <v>1</v>
       </c>
       <c r="H51">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B52">
-        <v>0.06748466257668712</v>
-      </c>
-      <c r="C52">
-        <v>44</v>
-      </c>
-      <c r="D52">
-        <v>47</v>
-      </c>
-      <c r="E52">
-        <v>0.06</v>
-      </c>
-      <c r="F52">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="G52" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B53">
-        <v>0.05988023952095808</v>
-      </c>
-      <c r="C53">
-        <v>30</v>
-      </c>
-      <c r="D53">
-        <v>33</v>
-      </c>
-      <c r="E53">
-        <v>0.09</v>
-      </c>
-      <c r="F53">
-        <v>0.91</v>
-      </c>
-      <c r="G53" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53">
-        <v>471</v>
+        <v>594</v>
       </c>
     </row>
   </sheetData>
